--- a/Input_files/Actual_testcases/Kaman/LogixalQABox2/ALL_PAGES/END_TO_END/TC40_Adding_MultipleItems_QuickOrder.xlsx
+++ b/Input_files/Actual_testcases/Kaman/LogixalQABox2/ALL_PAGES/END_TO_END/TC40_Adding_MultipleItems_QuickOrder.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMANLiveBranch\Input_files\Actual_testcases\Kaman\LogixalQABox2\ALL_PAGES\END_TO_END\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49310A4-5127-4307-ABCC-ED05CA8FF251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC40_Adding_MultipleItems_Quick" sheetId="1" r:id="rId1"/>
@@ -14,16 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TC40_Adding_MultipleItems_Quick!$A$1:$E$100</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -183,9 +179,6 @@
     <t>SelectAcc</t>
   </si>
   <si>
-    <t>Logout</t>
-  </si>
-  <si>
     <t>$Managed_Username</t>
   </si>
   <si>
@@ -280,12 +273,15 @@
   </si>
   <si>
     <t>EnableCertificate_GoTOPage</t>
+  </si>
+  <si>
+    <t>Logout_RegisteredUser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -709,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -758,13 +754,13 @@
     <row r="3" spans="1:5">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>48</v>
@@ -782,16 +778,16 @@
     <row r="5" spans="1:5">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -937,16 +933,16 @@
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
@@ -961,7 +957,7 @@
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1082,10 +1078,10 @@
     <row r="29" spans="1:5">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
@@ -1093,7 +1089,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
@@ -1130,10 +1126,10 @@
     <row r="33" spans="1:5">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
@@ -1141,7 +1137,7 @@
     <row r="34" spans="1:5">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
@@ -1178,10 +1174,10 @@
     <row r="37" spans="1:5">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="6"/>
@@ -1189,7 +1185,7 @@
     <row r="38" spans="1:5">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="5"/>
@@ -1226,10 +1222,10 @@
     <row r="41" spans="1:5">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
@@ -1237,7 +1233,7 @@
     <row r="42" spans="1:5">
       <c r="A42" s="5"/>
       <c r="B42" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="5"/>
@@ -1274,10 +1270,10 @@
     <row r="45" spans="1:5">
       <c r="A45" s="5"/>
       <c r="B45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
@@ -1285,7 +1281,7 @@
     <row r="46" spans="1:5">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="5"/>
@@ -1322,10 +1318,10 @@
     <row r="49" spans="1:5">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="6"/>
@@ -1333,7 +1329,7 @@
     <row r="50" spans="1:5">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="5"/>
@@ -1370,10 +1366,10 @@
     <row r="53" spans="1:5">
       <c r="A53" s="5"/>
       <c r="B53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
@@ -1381,7 +1377,7 @@
     <row r="54" spans="1:5">
       <c r="A54" s="5"/>
       <c r="B54" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="5"/>
@@ -1418,10 +1414,10 @@
     <row r="57" spans="1:5">
       <c r="A57" s="5"/>
       <c r="B57" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="6"/>
@@ -1429,7 +1425,7 @@
     <row r="58" spans="1:5">
       <c r="A58" s="5"/>
       <c r="B58" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="5"/>
@@ -1466,10 +1462,10 @@
     <row r="61" spans="1:5">
       <c r="A61" s="5"/>
       <c r="B61" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
@@ -1477,7 +1473,7 @@
     <row r="62" spans="1:5">
       <c r="A62" s="5"/>
       <c r="B62" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="5"/>
@@ -1514,10 +1510,10 @@
     <row r="65" spans="1:5">
       <c r="A65" s="5"/>
       <c r="B65" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
@@ -1525,7 +1521,7 @@
     <row r="66" spans="1:5">
       <c r="A66" s="5"/>
       <c r="B66" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="5"/>
@@ -1562,10 +1558,10 @@
     <row r="69" spans="1:5">
       <c r="A69" s="5"/>
       <c r="B69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="6"/>
@@ -1573,7 +1569,7 @@
     <row r="70" spans="1:5">
       <c r="A70" s="5"/>
       <c r="B70" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="5"/>
@@ -1610,10 +1606,10 @@
     <row r="73" spans="1:5">
       <c r="A73" s="5"/>
       <c r="B73" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
@@ -1621,7 +1617,7 @@
     <row r="74" spans="1:5">
       <c r="A74" s="5"/>
       <c r="B74" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="5"/>
@@ -1658,10 +1654,10 @@
     <row r="77" spans="1:5">
       <c r="A77" s="5"/>
       <c r="B77" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
@@ -1669,7 +1665,7 @@
     <row r="78" spans="1:5">
       <c r="A78" s="5"/>
       <c r="B78" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="5"/>
@@ -1706,10 +1702,10 @@
     <row r="81" spans="1:5">
       <c r="A81" s="5"/>
       <c r="B81" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="6"/>
@@ -1717,7 +1713,7 @@
     <row r="82" spans="1:5">
       <c r="A82" s="5"/>
       <c r="B82" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="5"/>
@@ -1754,10 +1750,10 @@
     <row r="85" spans="1:5">
       <c r="A85" s="5"/>
       <c r="B85" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
@@ -1765,7 +1761,7 @@
     <row r="86" spans="1:5">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="5"/>
@@ -1802,10 +1798,10 @@
     <row r="89" spans="1:5">
       <c r="A89" s="5"/>
       <c r="B89" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
@@ -1813,7 +1809,7 @@
     <row r="90" spans="1:5">
       <c r="A90" s="5"/>
       <c r="B90" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="5"/>
@@ -1901,16 +1897,16 @@
     <row r="98" spans="1:5">
       <c r="A98" s="5"/>
       <c r="B98" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -1932,7 +1928,7 @@
         <v>9</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>44</v>
@@ -1947,7 +1943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -1981,7 +1977,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1989,7 +1985,7 @@
         <v>39</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2005,7 +2001,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2013,7 +2009,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2021,7 +2017,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2029,7 +2025,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2037,7 +2033,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2045,7 +2041,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2053,7 +2049,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2061,7 +2057,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2069,7 +2065,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2093,7 +2089,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2101,7 +2097,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2109,7 +2105,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2141,7 +2137,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2157,7 +2153,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2178,18 +2174,18 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2197,15 +2193,15 @@
         <v>48</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2215,6 +2211,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100599AB90ED4ADBD46B68D7A0832AE2D34" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4d93929aa8d4e603f371af1ff5e0b517">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e6243fcc-5e87-4459-985d-7491a55b4be2" xmlns:ns3="904b644c-3cf7-40e5-b5a5-e101a1ff52b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="17e9716027504630c423500e26042861" ns2:_="" ns3:_="">
     <xsd:import namespace="e6243fcc-5e87-4459-985d-7491a55b4be2"/>
@@ -2425,22 +2436,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="904b644c-3cf7-40e5-b5a5-e101a1ff52b5"/>
+    <ds:schemaRef ds:uri="e6243fcc-5e87-4459-985d-7491a55b4be2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CAE325E-5F3B-4FE5-B026-F899F4FA3755}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2457,29 +2478,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="904b644c-3cf7-40e5-b5a5-e101a1ff52b5"/>
-    <ds:schemaRef ds:uri="e6243fcc-5e87-4459-985d-7491a55b4be2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>